--- a/data/trans_orig/P5706-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P5706-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>339639</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>311456</v>
+        <v>315668</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>367430</v>
+        <v>366191</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4893854363077556</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4487753858420218</v>
+        <v>0.4548448524495302</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5294289500472514</v>
+        <v>0.5276441733757051</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>316</v>
@@ -765,19 +765,19 @@
         <v>309488</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>281888</v>
+        <v>282615</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>334635</v>
+        <v>334276</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4496071178174487</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4095127226509322</v>
+        <v>0.4105685324755322</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4861396644943587</v>
+        <v>0.4856179280338307</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>648</v>
@@ -786,19 +786,19 @@
         <v>649127</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>614176</v>
+        <v>611314</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>687515</v>
+        <v>686967</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4695777277709723</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4442944460243464</v>
+        <v>0.4422241998122987</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4973474021000635</v>
+        <v>0.4969513580265477</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>228549</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>205540</v>
+        <v>205306</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>255130</v>
+        <v>253780</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3293161711535142</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2961616676809557</v>
+        <v>0.2958248892985805</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3676166193588556</v>
+        <v>0.3656715508776692</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>238</v>
@@ -836,19 +836,19 @@
         <v>235387</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>210576</v>
+        <v>212830</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>259195</v>
+        <v>259724</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.341957227525506</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3059136797064664</v>
+        <v>0.3091883861320046</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3765454465120335</v>
+        <v>0.3773130247634811</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>463</v>
@@ -857,19 +857,19 @@
         <v>463936</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>426199</v>
+        <v>429963</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>495852</v>
+        <v>498794</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3356108153143647</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3083122707605455</v>
+        <v>0.3110344925928426</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3586991650436016</v>
+        <v>0.3608268709322223</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>108360</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>91822</v>
+        <v>90234</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>129386</v>
+        <v>127324</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1561357245756029</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1323054410565733</v>
+        <v>0.1300177224267605</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1864314748606237</v>
+        <v>0.1834601489359367</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>106</v>
@@ -907,19 +907,19 @@
         <v>106669</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>89018</v>
+        <v>88301</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>126984</v>
+        <v>126272</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1549626450127491</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1293201070934044</v>
+        <v>0.128279189123771</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1844754332623773</v>
+        <v>0.1834406162150024</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>216</v>
@@ -928,19 +928,19 @@
         <v>215029</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>189518</v>
+        <v>190682</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>241907</v>
+        <v>242018</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1555515868102741</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1370970387008764</v>
+        <v>0.1379388909015789</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.174995433187432</v>
+        <v>0.1750755073808642</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>16474</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>9579</v>
+        <v>9565</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>27296</v>
+        <v>27476</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02373714971014045</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01380305262051889</v>
+        <v>0.01378166586331488</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03933090315480078</v>
+        <v>0.03959016983039844</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>31</v>
@@ -978,19 +978,19 @@
         <v>31793</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>22079</v>
+        <v>21710</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>45054</v>
+        <v>44120</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04618745436950129</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03207548894372803</v>
+        <v>0.03153947709034201</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06545213853661377</v>
+        <v>0.06409593092865484</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>46</v>
@@ -999,19 +999,19 @@
         <v>48267</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>35401</v>
+        <v>34435</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>65453</v>
+        <v>64132</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03491633244414584</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02560886693763088</v>
+        <v>0.02491004341175739</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04734841926563418</v>
+        <v>0.0463928382261342</v>
       </c>
     </row>
     <row r="8">
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>4956</v>
+        <v>4965</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.001425518252986858</v>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.007140403866110846</v>
+        <v>0.007153896203623227</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>5</v>
@@ -1049,19 +1049,19 @@
         <v>5015</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1874</v>
+        <v>1836</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>11360</v>
+        <v>11658</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.007285555274794877</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.002722293068317878</v>
+        <v>0.002666735231198385</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.01650346984189057</v>
+        <v>0.01693624496184028</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>6</v>
@@ -1070,19 +1070,19 @@
         <v>6004</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2238</v>
+        <v>2172</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>12871</v>
+        <v>12521</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.004343537660243028</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.001619261854400678</v>
+        <v>0.001571411825810835</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.009310573494927258</v>
+        <v>0.009057943679729077</v>
       </c>
     </row>
     <row r="9">
@@ -1174,19 +1174,19 @@
         <v>545747</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>516515</v>
+        <v>512177</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>575673</v>
+        <v>577534</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5674222340462237</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5370290692423304</v>
+        <v>0.5325193630000625</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5985367326064129</v>
+        <v>0.6004718455331223</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>503</v>
@@ -1195,19 +1195,19 @@
         <v>529325</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>496938</v>
+        <v>496809</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>561991</v>
+        <v>560107</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.546601800195923</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5131574949040378</v>
+        <v>0.5130244375977985</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5803341040692794</v>
+        <v>0.5783878535301078</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1004</v>
@@ -1216,19 +1216,19 @@
         <v>1075072</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1028022</v>
+        <v>1030653</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1118718</v>
+        <v>1119204</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5569764584446247</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.532600880114668</v>
+        <v>0.5339637719207149</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5795885254088198</v>
+        <v>0.579840379544071</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>265041</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>238222</v>
+        <v>237774</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>292046</v>
+        <v>294343</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2755679208978996</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2476839554222927</v>
+        <v>0.2472177913254397</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3036452810915902</v>
+        <v>0.3060336384419873</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>249</v>
@@ -1266,19 +1266,19 @@
         <v>265402</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>237053</v>
+        <v>236329</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>293927</v>
+        <v>293228</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2740641113114001</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2447901753432907</v>
+        <v>0.2440422003723906</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3035201325038647</v>
+        <v>0.3027983821746216</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>505</v>
@@ -1287,19 +1287,19 @@
         <v>530443</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>491481</v>
+        <v>485222</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>570607</v>
+        <v>569239</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2748134477874423</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.254627952778853</v>
+        <v>0.251385419320135</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2956215586280842</v>
+        <v>0.29491299130434</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>114394</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>95172</v>
+        <v>95076</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>138379</v>
+        <v>136933</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1189373086195487</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.09895172299825836</v>
+        <v>0.09885200896391577</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1438753139725908</v>
+        <v>0.1423716538712677</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>125</v>
@@ -1337,19 +1337,19 @@
         <v>138675</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>117752</v>
+        <v>116478</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>161726</v>
+        <v>160625</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1432011763992115</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.121594857478486</v>
+        <v>0.1202795180670069</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1670049270076928</v>
+        <v>0.1658679420191055</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>231</v>
@@ -1358,19 +1358,19 @@
         <v>253069</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>223008</v>
+        <v>225305</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>283548</v>
+        <v>287212</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1311106821369102</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1155367963433913</v>
+        <v>0.1167268642953324</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.146901302371433</v>
+        <v>0.1487998039242187</v>
       </c>
     </row>
     <row r="13">
@@ -1387,19 +1387,19 @@
         <v>28440</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>18700</v>
+        <v>18850</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>41873</v>
+        <v>41517</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0295693520537223</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01944312614962992</v>
+        <v>0.01959901921403256</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04353653985878096</v>
+        <v>0.04316637061726528</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>21</v>
@@ -1408,19 +1408,19 @@
         <v>23531</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>14547</v>
+        <v>15333</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>35802</v>
+        <v>36495</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02429921464850706</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01502136322699718</v>
+        <v>0.01583362425736018</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0369704190381171</v>
+        <v>0.0376863219507683</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>47</v>
@@ -1429,19 +1429,19 @@
         <v>51971</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>39582</v>
+        <v>39125</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>68699</v>
+        <v>69329</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02692528262076585</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02050699791584647</v>
+        <v>0.02027019857672988</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03559158511859378</v>
+        <v>0.03591806718615437</v>
       </c>
     </row>
     <row r="14">
@@ -1458,19 +1458,19 @@
         <v>8178</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3535</v>
+        <v>3607</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>16079</v>
+        <v>16675</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.008503184382605633</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.003675051906844799</v>
+        <v>0.003750541717969311</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01671778448104487</v>
+        <v>0.01733768629683223</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>10</v>
@@ -1479,19 +1479,19 @@
         <v>11460</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>5686</v>
+        <v>5549</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>21119</v>
+        <v>20412</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01183369744495838</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.005871569639600061</v>
+        <v>0.005730452352207966</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02180841875969377</v>
+        <v>0.02107794661469413</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>17</v>
@@ -1500,19 +1500,19 @@
         <v>19638</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>12449</v>
+        <v>12657</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>31735</v>
+        <v>31812</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01017412901025703</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.006449765880048197</v>
+        <v>0.006557626096305626</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01644123854000977</v>
+        <v>0.01648145639390603</v>
       </c>
     </row>
     <row r="15">
@@ -1604,19 +1604,19 @@
         <v>416777</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>388464</v>
+        <v>391020</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>439234</v>
+        <v>443450</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6142541905564073</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5725264700828303</v>
+        <v>0.5762935822385203</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6473514966273582</v>
+        <v>0.6535658532624345</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>406</v>
@@ -1625,19 +1625,19 @@
         <v>398715</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>372411</v>
+        <v>374199</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>425139</v>
+        <v>424202</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5830518046237875</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5445871252009838</v>
+        <v>0.547202459267276</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6216922568616523</v>
+        <v>0.6203222378473747</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>798</v>
@@ -1646,19 +1646,19 @@
         <v>815492</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>779283</v>
+        <v>781882</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>851271</v>
+        <v>850529</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5985919358551809</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5720138957919214</v>
+        <v>0.5739213851688072</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6248552076289468</v>
+        <v>0.6243103751844485</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>179583</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>158234</v>
+        <v>158490</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>205456</v>
+        <v>203569</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2646732884084379</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2332084934627727</v>
+        <v>0.2335850323525276</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3028053864927031</v>
+        <v>0.3000233481723666</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>178</v>
@@ -1696,19 +1696,19 @@
         <v>170523</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>150527</v>
+        <v>148484</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>193831</v>
+        <v>192277</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2493611433189574</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2201205979842579</v>
+        <v>0.2171322027117703</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2834439707154158</v>
+        <v>0.281171771114855</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>350</v>
@@ -1717,19 +1717,19 @@
         <v>350107</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>318358</v>
+        <v>318915</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>382036</v>
+        <v>378943</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2569872506505734</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2336829871639317</v>
+        <v>0.2340918415002954</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2804243746093179</v>
+        <v>0.2781537230654872</v>
       </c>
     </row>
     <row r="18">
@@ -1746,19 +1746,19 @@
         <v>59977</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>46421</v>
+        <v>47710</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>76829</v>
+        <v>75585</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.0883957456395819</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.06841677226514223</v>
+        <v>0.07031637740820706</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1132320302722011</v>
+        <v>0.1113984904469106</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>88</v>
@@ -1767,19 +1767,19 @@
         <v>88350</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>70531</v>
+        <v>72804</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>105973</v>
+        <v>107888</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1291973175308085</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1031396288069824</v>
+        <v>0.106463406687326</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1549669188030176</v>
+        <v>0.1577679997107646</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>145</v>
@@ -1788,19 +1788,19 @@
         <v>148328</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>126140</v>
+        <v>127883</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>172032</v>
+        <v>172359</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1088763785165286</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.09258981733314645</v>
+        <v>0.09386944636229018</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.126275618880031</v>
+        <v>0.1265159612332001</v>
       </c>
     </row>
     <row r="19">
@@ -1817,19 +1817,19 @@
         <v>16859</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>9230</v>
+        <v>9716</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>27018</v>
+        <v>27006</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02484661616626342</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01360365139216132</v>
+        <v>0.01432019277888336</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03981895211124328</v>
+        <v>0.03980230253525043</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>23</v>
@@ -1838,19 +1838,19 @@
         <v>25179</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>16117</v>
+        <v>16364</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>37378</v>
+        <v>38906</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03681973694302221</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02356882660684383</v>
+        <v>0.02392904879227755</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.0546591470411799</v>
+        <v>0.05689370284353572</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>39</v>
@@ -1859,19 +1859,19 @@
         <v>42037</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>30725</v>
+        <v>30411</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>57765</v>
+        <v>57803</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03085660743997873</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02255287900691576</v>
+        <v>0.02232231269364958</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04240100572318828</v>
+        <v>0.04242871546680259</v>
       </c>
     </row>
     <row r="20">
@@ -1888,19 +1888,19 @@
         <v>5313</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1631</v>
+        <v>1641</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>13650</v>
+        <v>12415</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.00783015922930947</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.002404213127814881</v>
+        <v>0.002418371089206062</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02011834222225482</v>
+        <v>0.0182979795226192</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>4643</v>
+        <v>5379</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.001569997583424364</v>
@@ -1921,7 +1921,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.006789789368041869</v>
+        <v>0.007866023616654701</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>5</v>
@@ -1930,19 +1930,19 @@
         <v>6386</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1992</v>
+        <v>2082</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>13744</v>
+        <v>14704</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.004687827537738435</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.00146210483548771</v>
+        <v>0.001527965981004818</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01008858434099755</v>
+        <v>0.0107933188989926</v>
       </c>
     </row>
     <row r="21">
@@ -2034,19 +2034,19 @@
         <v>534908</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>503655</v>
+        <v>508331</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>563837</v>
+        <v>564631</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5677091856301913</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5345395976662273</v>
+        <v>0.5395026575806334</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5984122299133744</v>
+        <v>0.5992548691855423</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>548</v>
@@ -2055,19 +2055,19 @@
         <v>567290</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>534516</v>
+        <v>536041</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>600445</v>
+        <v>598494</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5462000568705843</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5146444812019141</v>
+        <v>0.5161127182607123</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5781228205437683</v>
+        <v>0.5762443598321522</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1110</v>
@@ -2076,19 +2076,19 @@
         <v>1102198</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1056853</v>
+        <v>1058106</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1144771</v>
+        <v>1144065</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.55643129046983</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5335391672830054</v>
+        <v>0.5341719920911451</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5779237904855351</v>
+        <v>0.57756715837961</v>
       </c>
     </row>
     <row r="23">
@@ -2105,19 +2105,19 @@
         <v>252434</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>227693</v>
+        <v>226712</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>280002</v>
+        <v>278709</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2679135407063952</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2416552663669726</v>
+        <v>0.2406145707703212</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.297171932702993</v>
+        <v>0.2958001400194079</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>279</v>
@@ -2126,19 +2126,19 @@
         <v>290643</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>261298</v>
+        <v>261963</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>320678</v>
+        <v>321383</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2798374893399829</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2515841166357428</v>
+        <v>0.2522240345727611</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3087564995969081</v>
+        <v>0.3094351950816108</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>548</v>
@@ -2147,19 +2147,19 @@
         <v>543077</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>506536</v>
+        <v>502493</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>583773</v>
+        <v>579596</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2741656322759838</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2557187707246126</v>
+        <v>0.2536774523316033</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2947107096280572</v>
+        <v>0.2926018814050835</v>
       </c>
     </row>
     <row r="24">
@@ -2176,19 +2176,19 @@
         <v>101479</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>84171</v>
+        <v>84144</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>121018</v>
+        <v>122061</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1077022652116436</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.08933297255880397</v>
+        <v>0.08930424818929879</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1284392955927111</v>
+        <v>0.1295459569428166</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>106</v>
@@ -2197,19 +2197,19 @@
         <v>111472</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>91791</v>
+        <v>92631</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>132900</v>
+        <v>134179</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1073279116252372</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.08837807530523188</v>
+        <v>0.08918734176373874</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1279588673545312</v>
+        <v>0.1291905430199986</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>214</v>
@@ -2218,19 +2218,19 @@
         <v>212952</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>184416</v>
+        <v>186383</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>241325</v>
+        <v>237879</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1075059801576285</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.09310002605402828</v>
+        <v>0.09409313420360163</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1218298200650131</v>
+        <v>0.1200900828709205</v>
       </c>
     </row>
     <row r="25">
@@ -2247,19 +2247,19 @@
         <v>42477</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>31885</v>
+        <v>31217</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>56966</v>
+        <v>55862</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.04508193492883854</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0338399606082708</v>
+        <v>0.03313150355554863</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.06045901364781207</v>
+        <v>0.05928789635378406</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>50</v>
@@ -2268,19 +2268,19 @@
         <v>54435</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>41750</v>
+        <v>40668</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>70260</v>
+        <v>70502</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.05241130810449863</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04019826170694211</v>
+        <v>0.03915656414840918</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.06764823649075202</v>
+        <v>0.06788096342154151</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>94</v>
@@ -2289,19 +2289,19 @@
         <v>96912</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>79325</v>
+        <v>80882</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>120532</v>
+        <v>118433</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04892494982684267</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04004603681577334</v>
+        <v>0.04083252594549585</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0608490704806287</v>
+        <v>0.05978970273018586</v>
       </c>
     </row>
     <row r="26">
@@ -2318,19 +2318,19 @@
         <v>10923</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>5780</v>
+        <v>5694</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>19670</v>
+        <v>18472</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01159307352293135</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.00613435723674722</v>
+        <v>0.006043548950160248</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02087615152690766</v>
+        <v>0.019604969909632</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>14</v>
@@ -2339,19 +2339,19 @@
         <v>14772</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>7938</v>
+        <v>8478</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>24132</v>
+        <v>23833</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.0142232340596971</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.007642612410499948</v>
+        <v>0.008162618623495741</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02323526001211836</v>
+        <v>0.02294690192521761</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>25</v>
@@ -2360,19 +2360,19 @@
         <v>25696</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>17258</v>
+        <v>16694</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>37303</v>
+        <v>38291</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01297214726971502</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.008712654707651698</v>
+        <v>0.008427709720431831</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01883190448119589</v>
+        <v>0.01933057559356812</v>
       </c>
     </row>
     <row r="27">
@@ -2464,19 +2464,19 @@
         <v>1837071</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1782059</v>
+        <v>1780258</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1895626</v>
+        <v>1891779</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.5606735949298064</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.5438838819347667</v>
+        <v>0.5433342730100805</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.5785444748253346</v>
+        <v>0.5773705259951299</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1773</v>
@@ -2485,19 +2485,19 @@
         <v>1804818</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1744062</v>
+        <v>1741314</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1857356</v>
+        <v>1862442</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.5340965719466495</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.5161173150484458</v>
+        <v>0.5153040369351402</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.549644123192304</v>
+        <v>0.5511492349159495</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>3560</v>
@@ -2506,19 +2506,19 @@
         <v>3641889</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>3553815</v>
+        <v>3558753</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>3723301</v>
+        <v>3720466</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.5471801297351784</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.5339473660786466</v>
+        <v>0.5346892437629628</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.5594120113132873</v>
+        <v>0.5589860071595278</v>
       </c>
     </row>
     <row r="29">
@@ -2535,19 +2535,19 @@
         <v>925608</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>875677</v>
+        <v>877614</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>976151</v>
+        <v>975806</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2824952534579386</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2672562635489416</v>
+        <v>0.2678476116797942</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2979210874839173</v>
+        <v>0.2978156179549061</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>944</v>
@@ -2556,19 +2556,19 @@
         <v>961954</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>912036</v>
+        <v>916802</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1019694</v>
+        <v>1019646</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2846694971888962</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2698971586455703</v>
+        <v>0.2713077673020979</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3017562017785991</v>
+        <v>0.301742096519552</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1866</v>
@@ -2577,19 +2577,19 @@
         <v>1887562</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1811872</v>
+        <v>1819107</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1962585</v>
+        <v>1961916</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2835991424122021</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2722269610831377</v>
+        <v>0.2733139180540451</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2948709668111472</v>
+        <v>0.2947705524864858</v>
       </c>
     </row>
     <row r="30">
@@ -2606,19 +2606,19 @@
         <v>384211</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>346831</v>
+        <v>349076</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>424274</v>
+        <v>421802</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1172610055272677</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.105852768328595</v>
+        <v>0.1065378502961033</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1294884554183329</v>
+        <v>0.1287338100409292</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>425</v>
@@ -2627,19 +2627,19 @@
         <v>445166</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>408183</v>
+        <v>406405</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>485762</v>
+        <v>490701</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.131737270564011</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.120792816309432</v>
+        <v>0.1202666532125949</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1437508552689869</v>
+        <v>0.1452122581115977</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>806</v>
@@ -2648,19 +2648,19 @@
         <v>829377</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>780530</v>
+        <v>777716</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>891929</v>
+        <v>883911</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1246107744816498</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1172717052387897</v>
+        <v>0.1168489037158282</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.134009042597681</v>
+        <v>0.1328043263409571</v>
       </c>
     </row>
     <row r="31">
@@ -2677,19 +2677,19 @@
         <v>104250</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>85448</v>
+        <v>85410</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>124923</v>
+        <v>126217</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.031816922144584</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.02607862899419617</v>
+        <v>0.02606719408002731</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.0381264152048428</v>
+        <v>0.03852141321705121</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>125</v>
@@ -2698,19 +2698,19 @@
         <v>134938</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>112600</v>
+        <v>112014</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>159758</v>
+        <v>160594</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.03993203925881781</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.03332155042052253</v>
+        <v>0.03314816042356715</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.04727701607897091</v>
+        <v>0.04752432285758031</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>226</v>
@@ -2719,19 +2719,19 @@
         <v>239188</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>209755</v>
+        <v>209590</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>272367</v>
+        <v>274468</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.03593706195108679</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.03151497127344075</v>
+        <v>0.03149011601789199</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.04092204204173082</v>
+        <v>0.04123773616706307</v>
       </c>
     </row>
     <row r="32">
@@ -2748,19 +2748,19 @@
         <v>25404</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>16512</v>
+        <v>16102</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>38622</v>
+        <v>38779</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.007753223940403323</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.005039557461563558</v>
+        <v>0.004914270203544665</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.01178731624801248</v>
+        <v>0.01183519331982313</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>30</v>
@@ -2769,19 +2769,19 @@
         <v>32321</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>22021</v>
+        <v>22899</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>44447</v>
+        <v>45469</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.00956462104162541</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.006516650881164424</v>
+        <v>0.006776515870993808</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.01315307283949929</v>
+        <v>0.01345555613530138</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>53</v>
@@ -2790,19 +2790,19 @@
         <v>57725</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>43554</v>
+        <v>44540</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>74661</v>
+        <v>75736</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.008672891419882887</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.006543789464324586</v>
+        <v>0.006691900859788991</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.01121759024484904</v>
+        <v>0.01137903698456842</v>
       </c>
     </row>
     <row r="33">
@@ -3134,19 +3134,19 @@
         <v>471184</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>447220</v>
+        <v>446072</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>498549</v>
+        <v>498369</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6707205078003707</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6366087521636998</v>
+        <v>0.6349749410054366</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7096735621872544</v>
+        <v>0.7094176697280379</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>392</v>
@@ -3155,19 +3155,19 @@
         <v>416976</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>390092</v>
+        <v>390842</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>442703</v>
+        <v>443243</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5982013189912844</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5596331017689377</v>
+        <v>0.5607083797197848</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6351095679244911</v>
+        <v>0.6358843454936098</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>841</v>
@@ -3176,19 +3176,19 @@
         <v>888160</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>853624</v>
+        <v>847599</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>928209</v>
+        <v>922814</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6346022056480108</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6099258895653152</v>
+        <v>0.6056209039342105</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6632175322891525</v>
+        <v>0.6593631077965858</v>
       </c>
     </row>
     <row r="5">
@@ -3205,19 +3205,19 @@
         <v>163070</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>139894</v>
+        <v>141202</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>184611</v>
+        <v>187470</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2321273121397322</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.199136684434417</v>
+        <v>0.2009982564672309</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2627900204493399</v>
+        <v>0.2668595572670926</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>188</v>
@@ -3226,19 +3226,19 @@
         <v>202776</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>178743</v>
+        <v>177739</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>227607</v>
+        <v>225460</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2909062311295922</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2564275939364994</v>
+        <v>0.2549878752195163</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3265291985859889</v>
+        <v>0.3234491632041434</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>344</v>
@@ -3247,19 +3247,19 @@
         <v>365847</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>332287</v>
+        <v>337506</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>397754</v>
+        <v>402021</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2614022501406775</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2374236197116343</v>
+        <v>0.2411525942739139</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2842006402047695</v>
+        <v>0.2872490235039439</v>
       </c>
     </row>
     <row r="6">
@@ -3276,19 +3276,19 @@
         <v>50642</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>38114</v>
+        <v>38305</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>66309</v>
+        <v>65767</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.07208745454822907</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.05425445014966645</v>
+        <v>0.05452622121226551</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.09439011400489848</v>
+        <v>0.09361734363581056</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>48</v>
@@ -3297,19 +3297,19 @@
         <v>52591</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>40122</v>
+        <v>39928</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>68912</v>
+        <v>69036</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.07544837957819477</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.05755967992403972</v>
+        <v>0.05728165321124246</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.09886230223254298</v>
+        <v>0.09904033196607316</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>98</v>
@@ -3318,19 +3318,19 @@
         <v>103233</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>84995</v>
+        <v>85745</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>125401</v>
+        <v>128123</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.07376136882853497</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.06073040053459345</v>
+        <v>0.06126601510037485</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.08960037984620035</v>
+        <v>0.09154565858001323</v>
       </c>
     </row>
     <row r="7">
@@ -3347,19 +3347,19 @@
         <v>12771</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7026</v>
+        <v>7059</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>21274</v>
+        <v>21447</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01817928611144337</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01000091762330334</v>
+        <v>0.01004811906449614</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03028376606390639</v>
+        <v>0.03052939274669608</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>16</v>
@@ -3368,19 +3368,19 @@
         <v>18838</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>11262</v>
+        <v>11263</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>30910</v>
+        <v>30512</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02702584067191543</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01615696335899277</v>
+        <v>0.01615854255567998</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04434454074049654</v>
+        <v>0.04377326883148133</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>29</v>
@@ -3389,19 +3389,19 @@
         <v>31609</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>21373</v>
+        <v>22043</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>45802</v>
+        <v>45371</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02258532726923459</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01527163321481557</v>
+        <v>0.01574978863297992</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0327262000376957</v>
+        <v>0.03241815846904696</v>
       </c>
     </row>
     <row r="8">
@@ -3418,19 +3418,19 @@
         <v>4837</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1890</v>
+        <v>1876</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>11557</v>
+        <v>11360</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.00688543940022457</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.002690822239289379</v>
+        <v>0.002670358281579175</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.01645101321561622</v>
+        <v>0.01617140815644124</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>6</v>
@@ -3439,19 +3439,19 @@
         <v>5868</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2001</v>
+        <v>2047</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>12897</v>
+        <v>12823</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.008418229629013299</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.002870176677169672</v>
+        <v>0.00293626807167818</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.01850172474655021</v>
+        <v>0.0183966950481441</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>11</v>
@@ -3460,19 +3460,19 @@
         <v>10705</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>5645</v>
+        <v>5002</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>18444</v>
+        <v>18261</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.007648848113542107</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.004033327326886181</v>
+        <v>0.003573903677554619</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01317869022062731</v>
+        <v>0.01304761620273679</v>
       </c>
     </row>
     <row r="9">
@@ -3564,19 +3564,19 @@
         <v>593743</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>562397</v>
+        <v>560332</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>627781</v>
+        <v>624551</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5850234678474581</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.55413775338252</v>
+        <v>0.5521029961774204</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6185608684041276</v>
+        <v>0.6153785624653222</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>534</v>
@@ -3585,19 +3585,19 @@
         <v>585768</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>548850</v>
+        <v>549545</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>615955</v>
+        <v>618744</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5680974758246931</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5322938642076457</v>
+        <v>0.5329679918632891</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5973742814217525</v>
+        <v>0.6000790650154167</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1080</v>
@@ -3606,19 +3606,19 @@
         <v>1179510</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1133221</v>
+        <v>1132867</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1225272</v>
+        <v>1223181</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5764934666337527</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5538692623924942</v>
+        <v>0.5536962009853106</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5988598546803756</v>
+        <v>0.5978376680784936</v>
       </c>
     </row>
     <row r="11">
@@ -3635,19 +3635,19 @@
         <v>299754</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>269304</v>
+        <v>269199</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>335045</v>
+        <v>331288</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2953513167122004</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2653486330572216</v>
+        <v>0.2652457192794013</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3301249047436202</v>
+        <v>0.3264228514138587</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>300</v>
@@ -3656,19 +3656,19 @@
         <v>329402</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>302049</v>
+        <v>297644</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>361287</v>
+        <v>360002</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3194648933258198</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2929372643994861</v>
+        <v>0.2886655601893408</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3503880535433938</v>
+        <v>0.3491418031131581</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>576</v>
@@ -3677,19 +3677,19 @@
         <v>629155</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>590768</v>
+        <v>588810</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>675608</v>
+        <v>673195</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3075035638303786</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2887419645308323</v>
+        <v>0.2877846841185993</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3302080422568234</v>
+        <v>0.3290283522969717</v>
       </c>
     </row>
     <row r="12">
@@ -3706,19 +3706,19 @@
         <v>93387</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>76612</v>
+        <v>77132</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>114688</v>
+        <v>113762</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.09201580491005368</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.075486703667558</v>
+        <v>0.0759992385114583</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.113003410154657</v>
+        <v>0.112091038408544</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>85</v>
@@ -3727,19 +3727,19 @@
         <v>92525</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>76019</v>
+        <v>74581</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>114305</v>
+        <v>113154</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.08973416068806488</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.07372554500275964</v>
+        <v>0.07233084021923257</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1108568559618895</v>
+        <v>0.1097404100998569</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>172</v>
@@ -3748,19 +3748,19 @@
         <v>185912</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>161940</v>
+        <v>163140</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>216297</v>
+        <v>217418</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.09086595041664307</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.07914943634012205</v>
+        <v>0.07973590049417013</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1057166714924959</v>
+        <v>0.1062643709577493</v>
       </c>
     </row>
     <row r="13">
@@ -3777,19 +3777,19 @@
         <v>24786</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>15818</v>
+        <v>15518</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>37551</v>
+        <v>37625</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02442244691595837</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01558570603358146</v>
+        <v>0.01528980660063806</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03699918514903104</v>
+        <v>0.03707262241790939</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>18</v>
@@ -3798,19 +3798,19 @@
         <v>20442</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>12674</v>
+        <v>12117</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>33212</v>
+        <v>30613</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01982513113330166</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01229193750079445</v>
+        <v>0.01175179607062815</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03220970124899786</v>
+        <v>0.02968940900023392</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>39</v>
@@ -3819,19 +3819,19 @@
         <v>45228</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>32996</v>
+        <v>31715</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>61273</v>
+        <v>61700</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02210558955521369</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01612680095460464</v>
+        <v>0.01550070745843958</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02994753928496055</v>
+        <v>0.03015610501611311</v>
       </c>
     </row>
     <row r="14">
@@ -3848,19 +3848,19 @@
         <v>3234</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1036</v>
+        <v>1040</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>8796</v>
+        <v>8861</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.003186963614329437</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.001020943624731267</v>
+        <v>0.001024450563062442</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.008666727929531916</v>
+        <v>0.008730667925231219</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2</v>
@@ -3872,7 +3872,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>9956</v>
+        <v>10445</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.002878339028120585</v>
@@ -3881,7 +3881,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.009655785493244961</v>
+        <v>0.01012970057085939</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5</v>
@@ -3890,19 +3890,19 @@
         <v>6202</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2145</v>
+        <v>2178</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>14214</v>
+        <v>15804</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.003031429564012025</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.001048567494840146</v>
+        <v>0.001064535864846299</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.006947362576745141</v>
+        <v>0.007724391774064658</v>
       </c>
     </row>
     <row r="15">
@@ -3994,19 +3994,19 @@
         <v>467281</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>438126</v>
+        <v>438093</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>494331</v>
+        <v>493265</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6195576165210755</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5809022181596579</v>
+        <v>0.5808584524937183</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6554231341794687</v>
+        <v>0.654009426381938</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>418</v>
@@ -4015,19 +4015,19 @@
         <v>460268</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>434446</v>
+        <v>430862</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>491245</v>
+        <v>486534</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5922334960263334</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5590074296898919</v>
+        <v>0.5543960295881143</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6320919307060076</v>
+        <v>0.6260299897581365</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>853</v>
@@ -4036,19 +4036,19 @@
         <v>927549</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>889269</v>
+        <v>888239</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>964753</v>
+        <v>969787</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6056907470357704</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5806937204646531</v>
+        <v>0.5800212049566348</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6299847392886165</v>
+        <v>0.6332721653495835</v>
       </c>
     </row>
     <row r="17">
@@ -4065,19 +4065,19 @@
         <v>193322</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>169238</v>
+        <v>170103</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>222110</v>
+        <v>219666</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2563214299371659</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2243893689730588</v>
+        <v>0.2255353930500344</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2944911580749219</v>
+        <v>0.2912501567335625</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>183</v>
@@ -4086,19 +4086,19 @@
         <v>199146</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>172215</v>
+        <v>175889</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>221268</v>
+        <v>224031</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2562443353487528</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2215909595168509</v>
+        <v>0.2263181758924397</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2847080497755461</v>
+        <v>0.288264266778214</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>352</v>
@@ -4107,19 +4107,19 @@
         <v>392468</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>356504</v>
+        <v>357910</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>428741</v>
+        <v>431401</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2562823047768244</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2327974444452472</v>
+        <v>0.2337156051152483</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2799682114829707</v>
+        <v>0.2817052954992949</v>
       </c>
     </row>
     <row r="18">
@@ -4136,19 +4136,19 @@
         <v>75476</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>60265</v>
+        <v>59541</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>94182</v>
+        <v>95893</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1000717401968615</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.07990450656869136</v>
+        <v>0.07894455426485657</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1248736925418223</v>
+        <v>0.1271422129185583</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>80</v>
@@ -4157,19 +4157,19 @@
         <v>90256</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>70867</v>
+        <v>73017</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>111728</v>
+        <v>110685</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1161336776931952</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.09118583449653259</v>
+        <v>0.09395160745726561</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1437623632506169</v>
+        <v>0.1424204148838237</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>148</v>
@@ -4178,19 +4178,19 @@
         <v>165732</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>141950</v>
+        <v>141653</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>192141</v>
+        <v>192861</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1082231019574586</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.09269329215461132</v>
+        <v>0.09249928855527394</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1254684694355068</v>
+        <v>0.1259383584509237</v>
       </c>
     </row>
     <row r="19">
@@ -4207,19 +4207,19 @@
         <v>10764</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>5025</v>
+        <v>5324</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>20110</v>
+        <v>20455</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01427205682468785</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.006662061630542488</v>
+        <v>0.007059435027961929</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02666383832240501</v>
+        <v>0.02712093288830889</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>18</v>
@@ -4228,19 +4228,19 @@
         <v>21292</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>12923</v>
+        <v>13288</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>32507</v>
+        <v>33691</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02739640506510392</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01662804284541735</v>
+        <v>0.01709751162674295</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04182718192307287</v>
+        <v>0.04335026858049948</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>27</v>
@@ -4249,19 +4249,19 @@
         <v>32056</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>21478</v>
+        <v>22154</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>47137</v>
+        <v>47240</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02093260511807444</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01402518794472789</v>
+        <v>0.01446673896292807</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03078062709801647</v>
+        <v>0.03084802481497964</v>
       </c>
     </row>
     <row r="20">
@@ -4278,19 +4278,19 @@
         <v>7374</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2973</v>
+        <v>2341</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>18905</v>
+        <v>16467</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.009777156520209227</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.003942048129933158</v>
+        <v>0.003104154886992578</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02506539123804571</v>
+        <v>0.02183369057796981</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>6</v>
@@ -4299,19 +4299,19 @@
         <v>6211</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2069</v>
+        <v>2984</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>12467</v>
+        <v>13482</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.00799208586661466</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.002661748447524366</v>
+        <v>0.003839199616670284</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01604135687044027</v>
+        <v>0.01734683993998514</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>11</v>
@@ -4320,19 +4320,19 @@
         <v>13585</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>7142</v>
+        <v>7219</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>24291</v>
+        <v>25239</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.008871241111872208</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.004663714418874929</v>
+        <v>0.004713933550359644</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01586183416447805</v>
+        <v>0.01648096464426868</v>
       </c>
     </row>
     <row r="21">
@@ -4424,19 +4424,19 @@
         <v>526153</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>493897</v>
+        <v>493073</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>557675</v>
+        <v>557308</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5557331279925994</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5216631639510099</v>
+        <v>0.5207930606017162</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5890267498633693</v>
+        <v>0.5886394951650219</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>521</v>
@@ -4445,19 +4445,19 @@
         <v>547007</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>511127</v>
+        <v>513867</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>578592</v>
+        <v>579449</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5219378058849727</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4877019543996379</v>
+        <v>0.4903169161797341</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5520752165808753</v>
+        <v>0.5528930948444314</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1025</v>
@@ -4466,19 +4466,19 @@
         <v>1073161</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1032877</v>
+        <v>1027432</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1118409</v>
+        <v>1121894</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5379777265558942</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5177835759208717</v>
+        <v>0.5150540950740844</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5606606974497431</v>
+        <v>0.5624077486758584</v>
       </c>
     </row>
     <row r="23">
@@ -4495,19 +4495,19 @@
         <v>282521</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>254073</v>
+        <v>251808</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>311951</v>
+        <v>310319</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2984043177779214</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2683563539060602</v>
+        <v>0.2659648977345461</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3294884030560128</v>
+        <v>0.3277653198365155</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>334</v>
@@ -4516,19 +4516,19 @@
         <v>348977</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>319268</v>
+        <v>319929</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>381463</v>
+        <v>380930</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3329837701376682</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.3046363197505095</v>
+        <v>0.3052665348983881</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.363980840157514</v>
+        <v>0.3634716417687954</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>605</v>
@@ -4537,19 +4537,19 @@
         <v>631499</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>589146</v>
+        <v>583769</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>672582</v>
+        <v>672024</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3165716859170217</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.295340212033863</v>
+        <v>0.2926447047787919</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3371666113110109</v>
+        <v>0.3368872033477532</v>
       </c>
     </row>
     <row r="24">
@@ -4566,19 +4566,19 @@
         <v>111923</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>93240</v>
+        <v>93483</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>134102</v>
+        <v>133253</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1182156992910909</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.09848238308508528</v>
+        <v>0.09873831593267825</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1416414767912456</v>
+        <v>0.1407446857330449</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>112</v>
@@ -4587,19 +4587,19 @@
         <v>114792</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>97189</v>
+        <v>95778</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>135589</v>
+        <v>136708</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.10953104928854</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.09273461544929044</v>
+        <v>0.09138845462649922</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1293745473711682</v>
+        <v>0.1304425659590472</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>222</v>
@@ -4608,19 +4608,19 @@
         <v>226715</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>202092</v>
+        <v>199209</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>256371</v>
+        <v>255573</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1136529539903803</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1013090811549794</v>
+        <v>0.09986409310218806</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1285191116877919</v>
+        <v>0.1281194951153568</v>
       </c>
     </row>
     <row r="25">
@@ -4637,19 +4637,19 @@
         <v>18953</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>11900</v>
+        <v>12457</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>29000</v>
+        <v>29570</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02001892171484637</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0125692920553078</v>
+        <v>0.0131568159337196</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03063076383305598</v>
+        <v>0.03123226993985638</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>21</v>
@@ -4658,19 +4658,19 @@
         <v>22670</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>13705</v>
+        <v>14649</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>34220</v>
+        <v>35099</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02163060025484162</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01307703153790097</v>
+        <v>0.01397716797168217</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03265164063017253</v>
+        <v>0.03349051188474046</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>40</v>
@@ -4679,19 +4679,19 @@
         <v>41623</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>29747</v>
+        <v>31227</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>56619</v>
+        <v>58401</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02086566610667096</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0149123886640152</v>
+        <v>0.01565421187478881</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02838321850389472</v>
+        <v>0.0292766297184692</v>
       </c>
     </row>
     <row r="26">
@@ -4708,19 +4708,19 @@
         <v>7222</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2196</v>
+        <v>2937</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>17782</v>
+        <v>18201</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.007627933223541869</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.002319737192735137</v>
+        <v>0.003101895115591141</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01878189733646798</v>
+        <v>0.01922417551822144</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>12</v>
@@ -4729,19 +4729,19 @@
         <v>14585</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>8254</v>
+        <v>7236</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>24423</v>
+        <v>24805</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.0139167744339775</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.007875835995251358</v>
+        <v>0.00690410719229827</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02330410652261238</v>
+        <v>0.02366834845147564</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>17</v>
@@ -4750,19 +4750,19 @@
         <v>21807</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>12050</v>
+        <v>12798</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>34933</v>
+        <v>34146</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01093196743003287</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.006040627308796155</v>
+        <v>0.006415847642279433</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01751176259936363</v>
+        <v>0.0171172899296555</v>
       </c>
     </row>
     <row r="27">
@@ -4854,19 +4854,19 @@
         <v>2058360</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1990983</v>
+        <v>1999951</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>2118417</v>
+        <v>2121615</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.6021418366255329</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.582431729518056</v>
+        <v>0.5850551722394073</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.6197105243117162</v>
+        <v>0.6206460946303528</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1865</v>
@@ -4875,19 +4875,19 @@
         <v>2010019</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1943151</v>
+        <v>1952695</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>2069558</v>
+        <v>2075436</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.5656673772655536</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.5468490961098311</v>
+        <v>0.5495349321976365</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5824229827063031</v>
+        <v>0.5840770850903471</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>3799</v>
@@ -4896,19 +4896,19 @@
         <v>4068380</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>3987557</v>
+        <v>3987052</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>4153342</v>
+        <v>4161076</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.5835515666534484</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.5719586425676639</v>
+        <v>0.5718863171824878</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.5957382192907484</v>
+        <v>0.5968475462767734</v>
       </c>
     </row>
     <row r="29">
@@ -4925,19 +4925,19 @@
         <v>938667</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>883993</v>
+        <v>882000</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>998742</v>
+        <v>995055</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2745925923864849</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2585986332591379</v>
+        <v>0.2580155825322912</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2921667815510646</v>
+        <v>0.2910882062964718</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1005</v>
@@ -4946,19 +4946,19 @@
         <v>1080301</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1024230</v>
+        <v>1023629</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1139353</v>
+        <v>1138836</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.304022608896837</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2882426992975721</v>
+        <v>0.2880735845326798</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.32064100506702</v>
+        <v>0.3204957030651098</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1877</v>
@@ -4967,19 +4967,19 @@
         <v>2018968</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1940743</v>
+        <v>1944488</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2098552</v>
+        <v>2103844</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2895924569988897</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2783721719445807</v>
+        <v>0.2789093379692583</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3010076469949519</v>
+        <v>0.3017666865119256</v>
       </c>
     </row>
     <row r="30">
@@ -4996,19 +4996,19 @@
         <v>331428</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>292433</v>
+        <v>293785</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>368971</v>
+        <v>365252</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.09695424194106257</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.08554674465344331</v>
+        <v>0.08594243746158114</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1079366894748949</v>
+        <v>0.1068488106872944</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>325</v>
@@ -5017,19 +5017,19 @@
         <v>350165</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>314474</v>
+        <v>314442</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>391900</v>
+        <v>387579</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.098544662161238</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.08850035926391381</v>
+        <v>0.08849149095325537</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1102899907921687</v>
+        <v>0.1090738548111339</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>640</v>
@@ -5038,19 +5038,19 @@
         <v>681593</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>635880</v>
+        <v>633771</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>731136</v>
+        <v>737630</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.09776484590287383</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.09120800632172914</v>
+        <v>0.09090547075337491</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1048711407123724</v>
+        <v>0.1058026564437989</v>
       </c>
     </row>
     <row r="31">
@@ -5067,19 +5067,19 @@
         <v>67275</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>52606</v>
+        <v>52073</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>85497</v>
+        <v>86403</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.01968029094931317</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.01538909431459934</v>
+        <v>0.01523305225638403</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.02501092748016314</v>
+        <v>0.02527576530855575</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>73</v>
@@ -5088,19 +5088,19 @@
         <v>83241</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>66046</v>
+        <v>65113</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>103204</v>
+        <v>103862</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.02342612947224281</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.01858686505718982</v>
+        <v>0.018324300716138</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.02904412470332473</v>
+        <v>0.02922916579085899</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>135</v>
@@ -5109,19 +5109,19 @@
         <v>150517</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>123886</v>
+        <v>128481</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>176391</v>
+        <v>177538</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.02158946659262655</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.01776969107574583</v>
+        <v>0.0184288279184028</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.02530074516168629</v>
+        <v>0.02546538763791572</v>
       </c>
     </row>
     <row r="32">
@@ -5138,19 +5138,19 @@
         <v>22668</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>14129</v>
+        <v>13020</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>38026</v>
+        <v>35586</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.006631038097606494</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.004133086994653209</v>
+        <v>0.003808689830077834</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.01112387154478668</v>
+        <v>0.01041005028763162</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>26</v>
@@ -5159,19 +5159,19 @@
         <v>29632</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>19799</v>
+        <v>19879</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>44108</v>
+        <v>42989</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.008339222204128541</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.005571829947197338</v>
+        <v>0.005594563555632847</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.01241294071391915</v>
+        <v>0.01209815062727724</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>44</v>
@@ -5180,19 +5180,19 @@
         <v>52300</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>36238</v>
+        <v>37840</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>68459</v>
+        <v>69579</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.007501663852161525</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.005197791106385748</v>
+        <v>0.005427551631442104</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.009819531514968404</v>
+        <v>0.009980195632636834</v>
       </c>
     </row>
     <row r="33">
@@ -5524,19 +5524,19 @@
         <v>307007</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>281478</v>
+        <v>280782</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>334296</v>
+        <v>330663</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4556738131791014</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4177826292934878</v>
+        <v>0.4167503796848162</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4961780515916885</v>
+        <v>0.4907863181689093</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>293</v>
@@ -5545,19 +5545,19 @@
         <v>293389</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>269674</v>
+        <v>267969</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>325016</v>
+        <v>319984</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.437333658779182</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4019832945298633</v>
+        <v>0.3994412922088036</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4844773517611922</v>
+        <v>0.4769766902061634</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>589</v>
@@ -5566,19 +5566,19 @@
         <v>600396</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>560781</v>
+        <v>563097</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>636075</v>
+        <v>636838</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4465233943295412</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4170614900213456</v>
+        <v>0.4187834134806027</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4730582234080519</v>
+        <v>0.4736261382068941</v>
       </c>
     </row>
     <row r="5">
@@ -5595,19 +5595,19 @@
         <v>245199</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>219795</v>
+        <v>221690</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>271223</v>
+        <v>271026</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3639366610923551</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3262299946971706</v>
+        <v>0.3290430310734693</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4025619717014414</v>
+        <v>0.4022703450532096</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>234</v>
@@ -5616,19 +5616,19 @@
         <v>236332</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>210307</v>
+        <v>211151</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>259634</v>
+        <v>262546</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3522823657934854</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3134894446183487</v>
+        <v>0.3147474710268011</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3870172839936732</v>
+        <v>0.3913580791401783</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>472</v>
@@ -5637,19 +5637,19 @@
         <v>481531</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>449739</v>
+        <v>448351</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>520129</v>
+        <v>516285</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3581220053890429</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3344776656970545</v>
+        <v>0.3334457460241778</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3868276989070195</v>
+        <v>0.383968794586635</v>
       </c>
     </row>
     <row r="6">
@@ -5666,19 +5666,19 @@
         <v>101206</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>83554</v>
+        <v>83363</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>120623</v>
+        <v>122310</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1502140997951977</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1240155377263606</v>
+        <v>0.1237308164285861</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.179034834953532</v>
+        <v>0.1815387315081301</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>117</v>
@@ -5687,19 +5687,19 @@
         <v>118597</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>98349</v>
+        <v>99256</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>138059</v>
+        <v>139859</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1767840208701763</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1466015717199532</v>
+        <v>0.1479529431148556</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2057946892231133</v>
+        <v>0.2084773841715802</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>215</v>
@@ -5708,19 +5708,19 @@
         <v>219803</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>193348</v>
+        <v>191378</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>249440</v>
+        <v>247673</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1634705807022983</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1437957073974844</v>
+        <v>0.1423307704714014</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1855123431540921</v>
+        <v>0.1841979125091784</v>
       </c>
     </row>
     <row r="7">
@@ -5737,19 +5737,19 @@
         <v>15339</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>9005</v>
+        <v>8809</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>26145</v>
+        <v>25802</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02276624631547629</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01336583115740122</v>
+        <v>0.01307443785255979</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03880566790058278</v>
+        <v>0.03829674692659794</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>15</v>
@@ -5758,19 +5758,19 @@
         <v>17154</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>9964</v>
+        <v>10271</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>27829</v>
+        <v>30222</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02556997156912441</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01485227902932272</v>
+        <v>0.01531004230591317</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04148318737388792</v>
+        <v>0.04504978304995263</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>29</v>
@@ -5779,19 +5779,19 @@
         <v>32492</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>21490</v>
+        <v>21624</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>45190</v>
+        <v>45219</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02416510369969124</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01598271909200885</v>
+        <v>0.01608215037608555</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03360830641258546</v>
+        <v>0.03363012038891521</v>
       </c>
     </row>
     <row r="8">
@@ -5808,19 +5808,19 @@
         <v>4992</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1951</v>
+        <v>1973</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>11000</v>
+        <v>12137</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.007409179617869487</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.002895659400073162</v>
+        <v>0.002928202911820815</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.01632630086292542</v>
+        <v>0.01801436556762141</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>5</v>
@@ -5829,19 +5829,19 @@
         <v>5387</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2037</v>
+        <v>2130</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>12011</v>
+        <v>12568</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.008029982988031968</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.003035839681958616</v>
+        <v>0.003175389860648021</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.01790360624777521</v>
+        <v>0.01873428615080621</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>10</v>
@@ -5850,19 +5850,19 @@
         <v>10379</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>5234</v>
+        <v>5084</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>18701</v>
+        <v>18416</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.00771891587942627</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.003892429233053536</v>
+        <v>0.003780983829915426</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.0139085310488901</v>
+        <v>0.01369645205551258</v>
       </c>
     </row>
     <row r="9">
@@ -5954,19 +5954,19 @@
         <v>527759</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>496985</v>
+        <v>493343</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>561818</v>
+        <v>561243</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5161801743359458</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4860817170419921</v>
+        <v>0.4825196239339191</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.549492405947373</v>
+        <v>0.5489299432767856</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>502</v>
@@ -5975,19 +5975,19 @@
         <v>530169</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>492759</v>
+        <v>497623</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>562560</v>
+        <v>564492</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5083535927221721</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4724837705216981</v>
+        <v>0.4771474680060731</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5394124590548238</v>
+        <v>0.5412645653707797</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>994</v>
@@ -5996,19 +5996,19 @@
         <v>1057927</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1012227</v>
+        <v>1011983</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1100349</v>
+        <v>1106753</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5122280754358908</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4901009106199752</v>
+        <v>0.4899828288360719</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5327679741069328</v>
+        <v>0.5358687550451662</v>
       </c>
     </row>
     <row r="11">
@@ -6025,19 +6025,19 @@
         <v>352372</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>320790</v>
+        <v>319442</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>384846</v>
+        <v>382366</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3446411380082253</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3137526018675296</v>
+        <v>0.3124335167714663</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3764024788991281</v>
+        <v>0.3739773799052749</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>325</v>
@@ -6046,19 +6046,19 @@
         <v>350191</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>321288</v>
+        <v>320766</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>385752</v>
+        <v>382645</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3357812964704729</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3080676662609527</v>
+        <v>0.3075670136205029</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3698796986288217</v>
+        <v>0.3669001377439434</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>650</v>
@@ -6067,19 +6067,19 @@
         <v>702562</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>662913</v>
+        <v>657413</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>748307</v>
+        <v>747911</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3401672857284009</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3209696968254999</v>
+        <v>0.3183068770231111</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3623157895246549</v>
+        <v>0.3621242754447659</v>
       </c>
     </row>
     <row r="12">
@@ -6096,19 +6096,19 @@
         <v>121170</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>102069</v>
+        <v>100093</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>143508</v>
+        <v>143011</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.118512003832181</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.09983004841748383</v>
+        <v>0.09789730277596101</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.140359297844916</v>
+        <v>0.1398732877743021</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>124</v>
@@ -6117,19 +6117,19 @@
         <v>132556</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>110320</v>
+        <v>110553</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>153478</v>
+        <v>154392</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1271016277178028</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1057803931398481</v>
+        <v>0.1060042669417192</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.147162608452799</v>
+        <v>0.1480396479638494</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>238</v>
@@ -6138,19 +6138,19 @@
         <v>253726</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>224509</v>
+        <v>223977</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>285083</v>
+        <v>282106</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1228494074121181</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1087030479255734</v>
+        <v>0.1084454338962171</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1380318734110342</v>
+        <v>0.1365902382302512</v>
       </c>
     </row>
     <row r="13">
@@ -6167,19 +6167,19 @@
         <v>17390</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>10568</v>
+        <v>10389</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>28547</v>
+        <v>28470</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01700836943420347</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01033602983733345</v>
+        <v>0.01016125040049403</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02792111871846547</v>
+        <v>0.02784519283558754</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>23</v>
@@ -6188,19 +6188,19 @@
         <v>26028</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>16527</v>
+        <v>17508</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>38207</v>
+        <v>38634</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02495727169801785</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01584724250149369</v>
+        <v>0.01678729401139226</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03663528412336083</v>
+        <v>0.03704415562400843</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>39</v>
@@ -6209,19 +6209,19 @@
         <v>43418</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>31554</v>
+        <v>30865</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>59742</v>
+        <v>59583</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02102223518603821</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01527791923173897</v>
+        <v>0.01494425166675978</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02892613027885435</v>
+        <v>0.02884905034488891</v>
       </c>
     </row>
     <row r="14">
@@ -6238,19 +6238,19 @@
         <v>3740</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>9404</v>
+        <v>8409</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.003658314389444449</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.0009422432836327662</v>
+        <v>0.0009379836039909601</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.009197595182963134</v>
+        <v>0.008224893490065938</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3</v>
@@ -6262,16 +6262,16 @@
         <v>1045</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>10845</v>
+        <v>12315</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.003806211391534318</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.001001540350743801</v>
+        <v>0.00100159209764895</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01039848134840008</v>
+        <v>0.01180809035866195</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>7</v>
@@ -6280,19 +6280,19 @@
         <v>7710</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>3203</v>
+        <v>3657</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>16544</v>
+        <v>15622</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.00373299623755195</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.001550710597330257</v>
+        <v>0.001770775982045942</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.008010167433789543</v>
+        <v>0.007563898719874413</v>
       </c>
     </row>
     <row r="15">
@@ -6384,19 +6384,19 @@
         <v>316484</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>289854</v>
+        <v>288999</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>347352</v>
+        <v>345780</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.417873699514538</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3827120759217136</v>
+        <v>0.3815832803352791</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4586305367841226</v>
+        <v>0.4565550050251604</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>300</v>
@@ -6405,19 +6405,19 @@
         <v>314830</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>287793</v>
+        <v>287960</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>342041</v>
+        <v>341163</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4029741143748097</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3683673302366107</v>
+        <v>0.3685817035192112</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4378040463347713</v>
+        <v>0.4366800427169708</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>590</v>
@@ -6426,19 +6426,19 @@
         <v>631314</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>594029</v>
+        <v>588923</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>674408</v>
+        <v>670462</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4103081952080281</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3860753598245704</v>
+        <v>0.3827571515156067</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4383159125555632</v>
+        <v>0.4357517446014398</v>
       </c>
     </row>
     <row r="17">
@@ -6455,19 +6455,19 @@
         <v>286453</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>258567</v>
+        <v>259130</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>313763</v>
+        <v>312026</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3782216037242513</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3414014142662134</v>
+        <v>0.3421452365616034</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4142807389754785</v>
+        <v>0.4119870620142602</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>289</v>
@@ -6476,19 +6476,19 @@
         <v>307002</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>280902</v>
+        <v>282349</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>334468</v>
+        <v>336427</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3929549097355711</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.359546874724709</v>
+        <v>0.3613996213657595</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4281106165357358</v>
+        <v>0.4306179492582342</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>552</v>
@@ -6497,19 +6497,19 @@
         <v>593455</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>554897</v>
+        <v>557654</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>632037</v>
+        <v>634890</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3857026771254534</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3606427167218882</v>
+        <v>0.3624347872868586</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4107780282169093</v>
+        <v>0.4126319973292156</v>
       </c>
     </row>
     <row r="18">
@@ -6526,19 +6526,19 @@
         <v>137849</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>114749</v>
+        <v>117828</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>161090</v>
+        <v>161108</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1820112094707489</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1515101474267925</v>
+        <v>0.1555753469794656</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2126970901273815</v>
+        <v>0.2127204093829387</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>130</v>
@@ -6547,19 +6547,19 @@
         <v>144603</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>123982</v>
+        <v>123087</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>169131</v>
+        <v>165055</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1850885404353126</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.158694177558298</v>
+        <v>0.1575486615608776</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2164827678174852</v>
+        <v>0.211266701658727</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>256</v>
@@ -6568,19 +6568,19 @@
         <v>282453</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>253865</v>
+        <v>250384</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>315074</v>
+        <v>315422</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1835737738271809</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1649937709731126</v>
+        <v>0.1627316144908624</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2047752615511189</v>
+        <v>0.2050011841739002</v>
       </c>
     </row>
     <row r="19">
@@ -6597,19 +6597,19 @@
         <v>14478</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>7948</v>
+        <v>8053</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>24190</v>
+        <v>24110</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01911560102722431</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01049483518010695</v>
+        <v>0.01063331499778174</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03193912491830433</v>
+        <v>0.03183354458758401</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>13</v>
@@ -6618,19 +6618,19 @@
         <v>13754</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>7661</v>
+        <v>7588</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>22776</v>
+        <v>24040</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01760518773298779</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.009805672283736556</v>
+        <v>0.009712473390978523</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02915214481156203</v>
+        <v>0.03077012352783558</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>26</v>
@@ -6639,19 +6639,19 @@
         <v>28232</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>18795</v>
+        <v>18681</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>41062</v>
+        <v>41478</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01834866435247845</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01221508052291442</v>
+        <v>0.01214135493174266</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02668716972031391</v>
+        <v>0.0269575926803346</v>
       </c>
     </row>
     <row r="20">
@@ -6671,7 +6671,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>6623</v>
+        <v>6558</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.002777886263237458</v>
@@ -6680,7 +6680,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.008745322586409941</v>
+        <v>0.008659319931187513</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1</v>
@@ -6692,7 +6692,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>4334</v>
+        <v>5448</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.001377247721318753</v>
@@ -6701,7 +6701,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.005547046558449766</v>
+        <v>0.006972979871605201</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>3</v>
@@ -6710,19 +6710,19 @@
         <v>3180</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>8384</v>
+        <v>7769</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.002066689486859103</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.0006268143274959815</v>
+        <v>0.0006258261645589866</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.005449074003320036</v>
+        <v>0.005049593256318812</v>
       </c>
     </row>
     <row r="21">
@@ -6814,19 +6814,19 @@
         <v>511782</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>481319</v>
+        <v>478826</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>543016</v>
+        <v>540383</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5471821295219236</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5146113824971226</v>
+        <v>0.5119462469302964</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5805765561380469</v>
+        <v>0.5777616557074037</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>533</v>
@@ -6835,19 +6835,19 @@
         <v>576440</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>541738</v>
+        <v>541132</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>607114</v>
+        <v>612068</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5522623446922491</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5190161556804839</v>
+        <v>0.5184353231355754</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5816503510524093</v>
+        <v>0.5863957006134372</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1040</v>
@@ -6856,19 +6856,19 @@
         <v>1088222</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1044899</v>
+        <v>1044825</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1136676</v>
+        <v>1130217</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5498614609683908</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5279710757886121</v>
+        <v>0.5279338291059623</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5743445510915666</v>
+        <v>0.5710809844631843</v>
       </c>
     </row>
     <row r="23">
@@ -6885,19 +6885,19 @@
         <v>281471</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>252732</v>
+        <v>254677</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>307919</v>
+        <v>309415</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.3009408489185745</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2702134129549256</v>
+        <v>0.2722931873865885</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3292174830492915</v>
+        <v>0.3308171032275831</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>289</v>
@@ -6906,19 +6906,19 @@
         <v>313849</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>285689</v>
+        <v>282226</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>345751</v>
+        <v>345831</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3006856893285311</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2737065852634277</v>
+        <v>0.2703886550035142</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3312493746589984</v>
+        <v>0.3313259311776305</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>570</v>
@@ -6927,19 +6927,19 @@
         <v>595321</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>555568</v>
+        <v>558125</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>632660</v>
+        <v>640663</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3008062764466319</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2807195302121439</v>
+        <v>0.2820118589228902</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3196728986649126</v>
+        <v>0.323716786554226</v>
       </c>
     </row>
     <row r="24">
@@ -6956,19 +6956,19 @@
         <v>109539</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>92668</v>
+        <v>91816</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>130205</v>
+        <v>131000</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1171152838692975</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.09907813540191807</v>
+        <v>0.09816718523040255</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1392112308332843</v>
+        <v>0.1400608950749338</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>100</v>
@@ -6977,19 +6977,19 @@
         <v>112767</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>93045</v>
+        <v>91537</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>136561</v>
+        <v>134973</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.108037563093803</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.08914214664774883</v>
+        <v>0.0876979576633433</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1308327743757927</v>
+        <v>0.1293121047107952</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>211</v>
@@ -6998,19 +6998,19 @@
         <v>222306</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>193351</v>
+        <v>193746</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>252933</v>
+        <v>254781</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1123276475348953</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.09769735448373219</v>
+        <v>0.09789702848816692</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1278028423430914</v>
+        <v>0.128736657307872</v>
       </c>
     </row>
     <row r="25">
@@ -7027,19 +7027,19 @@
         <v>25126</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>16421</v>
+        <v>16971</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>36736</v>
+        <v>36965</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02686363128056731</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01755676845883586</v>
+        <v>0.01814466273049238</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.0392771763394418</v>
+        <v>0.03952174616088875</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>30</v>
@@ -7048,19 +7048,19 @@
         <v>32511</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>22054</v>
+        <v>21248</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>45273</v>
+        <v>45495</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03114753567645751</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02112946653321719</v>
+        <v>0.02035684035650696</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.04337458021893802</v>
+        <v>0.04358721309749942</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>54</v>
@@ -7069,19 +7069,19 @@
         <v>57637</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>43890</v>
+        <v>44052</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>75413</v>
+        <v>73906</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0291229843545499</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02217683455417801</v>
+        <v>0.02225897413256206</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03810499008587886</v>
+        <v>0.03734346244906014</v>
       </c>
     </row>
     <row r="26">
@@ -7098,19 +7098,19 @@
         <v>7387</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2892</v>
+        <v>3095</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>14608</v>
+        <v>14903</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.007898106409637121</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.003092076269262236</v>
+        <v>0.003309041398224944</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01561805680857955</v>
+        <v>0.01593343318048197</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>7</v>
@@ -7119,19 +7119,19 @@
         <v>8211</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3274</v>
+        <v>3359</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>15636</v>
+        <v>15763</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.007866867208959322</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.003136662070890838</v>
+        <v>0.003217736721010628</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.01498045303273144</v>
+        <v>0.01510170700824956</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>14</v>
@@ -7140,19 +7140,19 @@
         <v>15598</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>9146</v>
+        <v>8906</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>27067</v>
+        <v>25729</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.007881630695532051</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.004621202764667596</v>
+        <v>0.00449992597535365</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01367637056704708</v>
+        <v>0.01300027629631654</v>
       </c>
     </row>
     <row r="27">
@@ -7244,19 +7244,19 @@
         <v>1663031</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1606045</v>
+        <v>1607418</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1723634</v>
+        <v>1724685</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.490736836365286</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.4739210578292648</v>
+        <v>0.4743260716957207</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.5086198765730057</v>
+        <v>0.5089300697053433</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1628</v>
@@ -7265,19 +7265,19 @@
         <v>1714828</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1655131</v>
+        <v>1651821</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1779825</v>
+        <v>1774486</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.4845765048289667</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.4677073970807613</v>
+        <v>0.466771992896544</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5029434539835479</v>
+        <v>0.5014347128058434</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>3213</v>
@@ -7286,19 +7286,19 @@
         <v>3377859</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>3292597</v>
+        <v>3295194</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>3461496</v>
+        <v>3464002</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.4875899903236541</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.4752825151571569</v>
+        <v>0.4756573345350724</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.4996628619151098</v>
+        <v>0.5000245503300983</v>
       </c>
     </row>
     <row r="29">
@@ -7315,19 +7315,19 @@
         <v>1165495</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1105235</v>
+        <v>1110697</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1220426</v>
+        <v>1219119</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3439210894240762</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3261390139497714</v>
+        <v>0.3277507936748151</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3601302290803305</v>
+        <v>0.3597448356796475</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1137</v>
@@ -7336,19 +7336,19 @@
         <v>1207374</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1150530</v>
+        <v>1152190</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1264929</v>
+        <v>1267112</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3411801775533012</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3251170014905696</v>
+        <v>0.3255863022608961</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3574441271557242</v>
+        <v>0.3580610247098711</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2244</v>
@@ -7357,19 +7357,19 @@
         <v>2372870</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2287766</v>
+        <v>2296786</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2455153</v>
+        <v>2451864</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3425209654826684</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3302363592224763</v>
+        <v>0.3315384242228092</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3543985162913312</v>
+        <v>0.3539236696562879</v>
       </c>
     </row>
     <row r="30">
@@ -7386,19 +7386,19 @@
         <v>469764</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>426320</v>
+        <v>429776</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>511566</v>
+        <v>508698</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1386205996843114</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1258010915075208</v>
+        <v>0.1268207349235354</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1509559856720116</v>
+        <v>0.1501094726179689</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>471</v>
@@ -7407,19 +7407,19 @@
         <v>508524</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>469053</v>
+        <v>464384</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>553916</v>
+        <v>552073</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.143698820924109</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1325451327835611</v>
+        <v>0.1312257096081512</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1565257523196085</v>
+        <v>0.156004993325129</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>920</v>
@@ -7428,19 +7428,19 @@
         <v>978288</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>918244</v>
+        <v>923920</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1037833</v>
+        <v>1045268</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1412146776674155</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.132547466866246</v>
+        <v>0.1333668089665418</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1498100266648718</v>
+        <v>0.1508831929733498</v>
       </c>
     </row>
     <row r="31">
@@ -7457,19 +7457,19 @@
         <v>72332</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>55981</v>
+        <v>57292</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>92540</v>
+        <v>93161</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.02134404836069707</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.01651927538828557</v>
+        <v>0.01690596727080187</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.02730726944928807</v>
+        <v>0.02749043263793737</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>81</v>
@@ -7478,19 +7478,19 @@
         <v>89448</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>71211</v>
+        <v>69251</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>110006</v>
+        <v>110200</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.02527612593651011</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.02012278106368997</v>
+        <v>0.01956890456690428</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.031085628831057</v>
+        <v>0.03114034760842987</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>148</v>
@@ -7499,19 +7499,19 @@
         <v>161779</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>138093</v>
+        <v>136409</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>189426</v>
+        <v>187897</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.0233526484955901</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.01993358075307432</v>
+        <v>0.01969045208813298</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.02734338192828595</v>
+        <v>0.02712269514593764</v>
       </c>
     </row>
     <row r="32">
@@ -7528,19 +7528,19 @@
         <v>18223</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>11408</v>
+        <v>11302</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>28682</v>
+        <v>28261</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.005377426165629254</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.003366461133900759</v>
+        <v>0.003335019193340176</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.008463617840918378</v>
+        <v>0.008339337906634331</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>16</v>
@@ -7549,19 +7549,19 @@
         <v>18644</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>11158</v>
+        <v>11033</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>30045</v>
+        <v>29047</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.005268370757113103</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.003153122865739499</v>
+        <v>0.003117616277990601</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.008490173560821828</v>
+        <v>0.00820802401531167</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>34</v>
@@ -7570,19 +7570,19 @@
         <v>36867</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>25609</v>
+        <v>26102</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>50503</v>
+        <v>51666</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.005321718030671854</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.003696631129105191</v>
+        <v>0.003767799673148478</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.007290079550053872</v>
+        <v>0.00745794825514778</v>
       </c>
     </row>
     <row r="33">
@@ -7914,19 +7914,19 @@
         <v>398950</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>371705</v>
+        <v>372060</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>425702</v>
+        <v>425385</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5796304304591771</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5400473325347731</v>
+        <v>0.5405621916637879</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6184992000633843</v>
+        <v>0.6180374317600104</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>629</v>
@@ -7935,19 +7935,19 @@
         <v>403337</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>383492</v>
+        <v>380470</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>427278</v>
+        <v>425813</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.5534421340750829</v>
+        <v>0.5534421340750828</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5262121638390286</v>
+        <v>0.5220654376143259</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5862936091457216</v>
+        <v>0.5842830967543781</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1018</v>
@@ -7956,19 +7956,19 @@
         <v>802287</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>768921</v>
+        <v>768786</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>840345</v>
+        <v>837745</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.566162082892934</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5426161569144443</v>
+        <v>0.5425211306838358</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5930192566547206</v>
+        <v>0.5911842429165894</v>
       </c>
     </row>
     <row r="5">
@@ -7985,19 +7985,19 @@
         <v>192014</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>168786</v>
+        <v>167332</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>216356</v>
+        <v>215803</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2789754671379053</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2452271268994328</v>
+        <v>0.2431149514814377</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3143413465219566</v>
+        <v>0.3135386250364975</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>395</v>
@@ -8006,19 +8006,19 @@
         <v>216171</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>196476</v>
+        <v>198362</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>234908</v>
+        <v>238222</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2966201404387999</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2695962305326052</v>
+        <v>0.2721845598244897</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3223313421849562</v>
+        <v>0.3268785150543863</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>620</v>
@@ -8027,19 +8027,19 @@
         <v>408185</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>377611</v>
+        <v>380026</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>439078</v>
+        <v>442679</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2880499250264144</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2664742971479505</v>
+        <v>0.2681786420716106</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3098509793732789</v>
+        <v>0.3123922362710126</v>
       </c>
     </row>
     <row r="6">
@@ -8056,19 +8056,19 @@
         <v>63366</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>49594</v>
+        <v>50119</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>80412</v>
+        <v>79105</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.09206357140328668</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.07205443532586614</v>
+        <v>0.07281731845415852</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1168294368455357</v>
+        <v>0.1149306665551712</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>134</v>
@@ -8077,19 +8077,19 @@
         <v>69203</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>58528</v>
+        <v>58722</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>81618</v>
+        <v>81872</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.09495795256751034</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.08030962142015953</v>
+        <v>0.0805752638601549</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1119925189397269</v>
+        <v>0.1123419604077882</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>209</v>
@@ -8098,19 +8098,19 @@
         <v>132569</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>113593</v>
+        <v>114469</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>151092</v>
+        <v>152444</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.09355211922393179</v>
+        <v>0.09355211922393182</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.08016119756111963</v>
+        <v>0.08077942220184757</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1066230869961195</v>
+        <v>0.1075772720249062</v>
       </c>
     </row>
     <row r="7">
@@ -8127,19 +8127,19 @@
         <v>21679</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>14065</v>
+        <v>13783</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>32410</v>
+        <v>32914</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03149729282670512</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02043528457237412</v>
+        <v>0.02002489832507658</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04708794046145643</v>
+        <v>0.04782040020403343</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>59</v>
@@ -8148,19 +8148,19 @@
         <v>32672</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>25146</v>
+        <v>24689</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>43133</v>
+        <v>42308</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04483178685500844</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03450364294546954</v>
+        <v>0.03387686946919658</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05918547281953524</v>
+        <v>0.05805373574160344</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>83</v>
@@ -8169,19 +8169,19 @@
         <v>54352</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>41730</v>
+        <v>42523</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>69438</v>
+        <v>67564</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.03835507378195121</v>
+        <v>0.03835507378195122</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02944859233091322</v>
+        <v>0.03000757391377095</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04900171260434212</v>
+        <v>0.04767858849126318</v>
       </c>
     </row>
     <row r="8">
@@ -8198,19 +8198,19 @@
         <v>12274</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>6784</v>
+        <v>6846</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>20648</v>
+        <v>19900</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01783323817292584</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.009856779346967812</v>
+        <v>0.009946504305448998</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02999950507946865</v>
+        <v>0.02891228496787886</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>14</v>
@@ -8219,19 +8219,19 @@
         <v>7396</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>4130</v>
+        <v>4199</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>13181</v>
+        <v>12296</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01014798606359848</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.005666680880172582</v>
+        <v>0.005761222044530391</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.01808639414497651</v>
+        <v>0.01687161459054983</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>28</v>
@@ -8240,19 +8240,19 @@
         <v>19670</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>13561</v>
+        <v>12433</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>30061</v>
+        <v>27941</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01388079907476862</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.00957014386962386</v>
+        <v>0.008773523701319307</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02121331059833859</v>
+        <v>0.0197177470861403</v>
       </c>
     </row>
     <row r="9">
@@ -8344,19 +8344,19 @@
         <v>585916</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>553078</v>
+        <v>552534</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>624803</v>
+        <v>623883</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5594798870959042</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5281234908536835</v>
+        <v>0.527603512561142</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5966118124600087</v>
+        <v>0.5957336864357022</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>738</v>
@@ -8365,19 +8365,19 @@
         <v>552063</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>521795</v>
+        <v>519824</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>581326</v>
+        <v>580820</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5169815829723989</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4886369878955985</v>
+        <v>0.4867916277902538</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5443850205486259</v>
+        <v>0.5439116347567033</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1234</v>
@@ -8386,19 +8386,19 @@
         <v>1137979</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1092276</v>
+        <v>1090150</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1183391</v>
+        <v>1181031</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5380237147864094</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5164156697665327</v>
+        <v>0.5154106799083572</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5594939950738418</v>
+        <v>0.5583779464747693</v>
       </c>
     </row>
     <row r="11">
@@ -8415,19 +8415,19 @@
         <v>330386</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>295689</v>
+        <v>296694</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>360101</v>
+        <v>359021</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3154793449966171</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2823471581163179</v>
+        <v>0.2833074773693472</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3438532046821353</v>
+        <v>0.3428224107441628</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>545</v>
@@ -8436,19 +8436,19 @@
         <v>363604</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>334046</v>
+        <v>335602</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>392067</v>
+        <v>391557</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3404982512002602</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.312819155847529</v>
+        <v>0.3142761068766243</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3671530670393752</v>
+        <v>0.3666753689528943</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>881</v>
@@ -8457,19 +8457,19 @@
         <v>693990</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>652305</v>
+        <v>652417</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>734959</v>
+        <v>738586</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3281106716712161</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3084024616949993</v>
+        <v>0.3084554387339853</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3474801234782001</v>
+        <v>0.3491951513878271</v>
       </c>
     </row>
     <row r="12">
@@ -8486,19 +8486,19 @@
         <v>83658</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>66190</v>
+        <v>64801</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>106924</v>
+        <v>103122</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.0798833104348958</v>
+        <v>0.07988331043489579</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.06320316515521718</v>
+        <v>0.06187759907160435</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1021000426487517</v>
+        <v>0.09846894943808414</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>141</v>
@@ -8507,19 +8507,19 @@
         <v>88862</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>75499</v>
+        <v>75888</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>102885</v>
+        <v>103806</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.0832148080438137</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.07070173297334935</v>
+        <v>0.07106528502632932</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.0963469410760424</v>
+        <v>0.09720914425366958</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>220</v>
@@ -8528,19 +8528,19 @@
         <v>172520</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>150463</v>
+        <v>149801</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>198207</v>
+        <v>199225</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.08156528782716724</v>
+        <v>0.08156528782716725</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.07113697052112124</v>
+        <v>0.07082420533307586</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.0937101545921445</v>
+        <v>0.09419150972513059</v>
       </c>
     </row>
     <row r="13">
@@ -8557,19 +8557,19 @@
         <v>37921</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>27368</v>
+        <v>26455</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>50930</v>
+        <v>50412</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03620962740816737</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02613360843889674</v>
+        <v>0.02526111919458479</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04863237662683258</v>
+        <v>0.048137801131841</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>67</v>
@@ -8578,19 +8578,19 @@
         <v>48776</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>37924</v>
+        <v>38286</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>66488</v>
+        <v>63985</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04567670926722574</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03551373484047404</v>
+        <v>0.0358533033898802</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06226287131803743</v>
+        <v>0.0599193077352976</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>108</v>
@@ -8599,19 +8599,19 @@
         <v>86697</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>70052</v>
+        <v>71153</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>107305</v>
+        <v>106145</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04098928494569488</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03311964530276536</v>
+        <v>0.03364041914621477</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05073268034839927</v>
+        <v>0.05018429386385286</v>
       </c>
     </row>
     <row r="14">
@@ -8628,19 +8628,19 @@
         <v>9371</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>4640</v>
+        <v>4662</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>16831</v>
+        <v>17468</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.008947830064415368</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.004430586688641684</v>
+        <v>0.004451246855570109</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01607184381997286</v>
+        <v>0.01667980433004531</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>20</v>
@@ -8649,19 +8649,19 @@
         <v>14553</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>9192</v>
+        <v>9268</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>27434</v>
+        <v>25777</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01362864851630143</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.008607586746447861</v>
+        <v>0.008678663999983089</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02569081522866323</v>
+        <v>0.02413901251279245</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>30</v>
@@ -8670,19 +8670,19 @@
         <v>23924</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>15864</v>
+        <v>15494</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>37309</v>
+        <v>35610</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01131104076951223</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.007500540759013433</v>
+        <v>0.007325558748843468</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01763935864619849</v>
+        <v>0.01683595142963676</v>
       </c>
     </row>
     <row r="15">
@@ -8774,19 +8774,19 @@
         <v>430532</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>398991</v>
+        <v>400797</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>463504</v>
+        <v>464597</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5381275032501319</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4987044897374466</v>
+        <v>0.5009624247646086</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5793400873074825</v>
+        <v>0.5807063926103548</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>593</v>
@@ -8795,19 +8795,19 @@
         <v>465108</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>436591</v>
+        <v>438154</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>489500</v>
+        <v>492961</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.5731201939077492</v>
+        <v>0.5731201939077493</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5379815175063695</v>
+        <v>0.5399064559668225</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6031773804100193</v>
+        <v>0.6074414520653599</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>944</v>
@@ -8816,19 +8816,19 @@
         <v>895639</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>854660</v>
+        <v>850761</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>939030</v>
+        <v>939330</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.5557484982003499</v>
+        <v>0.55574849820035</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5303209584206866</v>
+        <v>0.5279013623171417</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.58267247155353</v>
+        <v>0.5828590325531737</v>
       </c>
     </row>
     <row r="17">
@@ -8845,19 +8845,19 @@
         <v>266856</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>240890</v>
+        <v>237011</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>301097</v>
+        <v>300301</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3335468268699626</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3010916172859838</v>
+        <v>0.2962429201021885</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3763452329289482</v>
+        <v>0.3753508490171743</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>335</v>
@@ -8866,19 +8866,19 @@
         <v>254527</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>230119</v>
+        <v>230757</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>278041</v>
+        <v>280253</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3136356608730436</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2835595346371781</v>
+        <v>0.2843458199821267</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3426110759715402</v>
+        <v>0.3453363229211737</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>565</v>
@@ -8887,19 +8887,19 @@
         <v>521382</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>483684</v>
+        <v>482202</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>563501</v>
+        <v>562118</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3235203170791733</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3001283859266383</v>
+        <v>0.2992087243603637</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3496551074065608</v>
+        <v>0.3487968470818039</v>
       </c>
     </row>
     <row r="18">
@@ -8916,19 +8916,19 @@
         <v>75782</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>58384</v>
+        <v>57998</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>97809</v>
+        <v>95999</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.09472113478330235</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.07297466419094638</v>
+        <v>0.07249312750871738</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1222531042420248</v>
+        <v>0.1199905830933291</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>81</v>
@@ -8937,19 +8937,19 @@
         <v>61692</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>48894</v>
+        <v>48739</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>78688</v>
+        <v>77242</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.07601890702489661</v>
+        <v>0.0760189070248966</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.06024930457443257</v>
+        <v>0.06005757055770147</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.09696122378200757</v>
+        <v>0.0951794922827308</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>146</v>
@@ -8958,19 +8958,19 @@
         <v>137474</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>114793</v>
+        <v>116331</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>163527</v>
+        <v>167482</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.08530340054522492</v>
+        <v>0.08530340054522491</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.07122984983253093</v>
+        <v>0.07218388093988477</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.101469600027781</v>
+        <v>0.1039235194480022</v>
       </c>
     </row>
     <row r="19">
@@ -8987,19 +8987,19 @@
         <v>21544</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>14301</v>
+        <v>13760</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>33596</v>
+        <v>32649</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.02692826082934295</v>
+        <v>0.02692826082934294</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01787542819580973</v>
+        <v>0.01719880675471203</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04199264908040223</v>
+        <v>0.04080854002789659</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>26</v>
@@ -9008,19 +9008,19 @@
         <v>20389</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>13705</v>
+        <v>13419</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>30511</v>
+        <v>31268</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.02512398791882832</v>
+        <v>0.02512398791882833</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01688832228230313</v>
+        <v>0.01653586241769569</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03759687824990656</v>
+        <v>0.03852923254402399</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>49</v>
@@ -9029,19 +9029,19 @@
         <v>41933</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>31899</v>
+        <v>29928</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>55217</v>
+        <v>55329</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02601969726228062</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01979336055403952</v>
+        <v>0.01857017936720753</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03426253510577552</v>
+        <v>0.03433209128481985</v>
       </c>
     </row>
     <row r="20">
@@ -9058,19 +9058,19 @@
         <v>5341</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1162</v>
+        <v>1290</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>15328</v>
+        <v>16323</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.006676274267260136</v>
+        <v>0.006676274267260135</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.00145285145717874</v>
+        <v>0.001612969324290596</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01915907405231519</v>
+        <v>0.02040176676701685</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>11</v>
@@ -9079,19 +9079,19 @@
         <v>9821</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>5034</v>
+        <v>5265</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>20669</v>
+        <v>20179</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01210125027548231</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.006202862897495703</v>
+        <v>0.006487494163886717</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.02546845591294762</v>
+        <v>0.02486492058522881</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>15</v>
@@ -9100,19 +9100,19 @@
         <v>15162</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>8467</v>
+        <v>8249</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>27017</v>
+        <v>25926</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.009408086912971268</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.005253938414138563</v>
+        <v>0.005118253744532316</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01676425664489929</v>
+        <v>0.01608696105176196</v>
       </c>
     </row>
     <row r="21">
@@ -9204,19 +9204,19 @@
         <v>590029</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>556483</v>
+        <v>561436</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>620459</v>
+        <v>622738</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.5976134908496669</v>
+        <v>0.5976134908496671</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5636366217472172</v>
+        <v>0.5686536382855346</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6284348070631695</v>
+        <v>0.6307432994724307</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>911</v>
@@ -9225,19 +9225,19 @@
         <v>672149</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>644156</v>
+        <v>641494</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>702849</v>
+        <v>700890</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6033226740121359</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5781959777010559</v>
+        <v>0.5758062026422055</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6308787154587344</v>
+        <v>0.6291205924644047</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1469</v>
@@ -9246,19 +9246,19 @@
         <v>1262178</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1222431</v>
+        <v>1217322</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1307354</v>
+        <v>1306740</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.6006402915564465</v>
+        <v>0.6006402915564464</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5817258829844505</v>
+        <v>0.5792945898347225</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6221384995109943</v>
+        <v>0.6218462267735403</v>
       </c>
     </row>
     <row r="23">
@@ -9275,19 +9275,19 @@
         <v>269333</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>242173</v>
+        <v>241729</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>298503</v>
+        <v>296413</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.2727956113522947</v>
+        <v>0.2727956113522948</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2452859970719736</v>
+        <v>0.2448366449939817</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3023401126333862</v>
+        <v>0.3002234985948826</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>415</v>
@@ -9296,19 +9296,19 @@
         <v>289128</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>264188</v>
+        <v>262455</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>314911</v>
+        <v>315817</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2595223939670154</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2371361428876689</v>
+        <v>0.2355805038493647</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2826651385183138</v>
+        <v>0.2834781766645457</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>715</v>
@@ -9317,19 +9317,19 @@
         <v>558462</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>522944</v>
+        <v>521452</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>595825</v>
+        <v>598737</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.2657586355503784</v>
+        <v>0.2657586355503783</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2488567130706865</v>
+        <v>0.2481464068199679</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2835387613283074</v>
+        <v>0.2849249024243503</v>
       </c>
     </row>
     <row r="24">
@@ -9346,19 +9346,19 @@
         <v>71834</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>58572</v>
+        <v>56906</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>90463</v>
+        <v>88178</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.07275702576372459</v>
+        <v>0.0727570257637246</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.05932543874623466</v>
+        <v>0.05763769239044993</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.09162629316131009</v>
+        <v>0.08931143251144531</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>136</v>
@@ -9367,19 +9367,19 @@
         <v>88886</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>74686</v>
+        <v>75475</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>104270</v>
+        <v>104253</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.07978441617971958</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.0670385191538059</v>
+        <v>0.06774621829589837</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.09359300171302982</v>
+        <v>0.09357798145865411</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>219</v>
@@ -9388,19 +9388,19 @@
         <v>160720</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>141638</v>
+        <v>139252</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>181253</v>
+        <v>181946</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.07648269188314037</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.06740220510622634</v>
+        <v>0.06626671051000271</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.08625377968995479</v>
+        <v>0.08658357135039065</v>
       </c>
     </row>
     <row r="25">
@@ -9417,19 +9417,19 @@
         <v>38907</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>28183</v>
+        <v>27842</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>54282</v>
+        <v>53987</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03940673892934281</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02854549674058577</v>
+        <v>0.02820027159016179</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05497957576708143</v>
+        <v>0.05468109295905454</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>70</v>
@@ -9438,19 +9438,19 @@
         <v>46973</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>36624</v>
+        <v>35739</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>59447</v>
+        <v>60303</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04216345064412123</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03287394290762855</v>
+        <v>0.03207962854909473</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05335988426912484</v>
+        <v>0.05412793718568289</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>112</v>
@@ -9459,19 +9459,19 @@
         <v>85880</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>72052</v>
+        <v>70613</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>105966</v>
+        <v>104460</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.04086824694708005</v>
+        <v>0.04086824694708004</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03428782091435727</v>
+        <v>0.03360313513823397</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.050426679626245</v>
+        <v>0.04971002000831069</v>
       </c>
     </row>
     <row r="26">
@@ -9488,19 +9488,19 @@
         <v>17206</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>10580</v>
+        <v>9964</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>27117</v>
+        <v>26273</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01742713310497097</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01071606334140292</v>
+        <v>0.01009250418469755</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02746556417849488</v>
+        <v>0.02661030137538423</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>24</v>
@@ -9509,19 +9509,19 @@
         <v>16942</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>10983</v>
+        <v>11237</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>25401</v>
+        <v>25474</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01520706519700801</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.009858007879126739</v>
+        <v>0.01008643137069397</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02279976386216985</v>
+        <v>0.02286546518008022</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>43</v>
@@ -9530,19 +9530,19 @@
         <v>34148</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>25060</v>
+        <v>25493</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>46906</v>
+        <v>46551</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.01625013406295477</v>
+        <v>0.01625013406295478</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01192540856649545</v>
+        <v>0.01213133367580851</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.0223216124403081</v>
+        <v>0.02215232848496728</v>
       </c>
     </row>
     <row r="27">
@@ -9634,19 +9634,19 @@
         <v>2005426</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1938228</v>
+        <v>1940037</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>2068697</v>
+        <v>2065949</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.5692547429429805</v>
+        <v>0.5692547429429804</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.5501802283337804</v>
+        <v>0.550693674241876</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.5872147993778944</v>
+        <v>0.5864345691746009</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2871</v>
@@ -9655,19 +9655,19 @@
         <v>2092657</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2035518</v>
+        <v>2038726</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>2146127</v>
+        <v>2147047</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.5622017795896282</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.5468511356434638</v>
+        <v>0.5477129733143733</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5765667313439448</v>
+        <v>0.5768139276502369</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>4665</v>
@@ -9676,19 +9676,19 @@
         <v>4098083</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>4014946</v>
+        <v>4015984</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>4187983</v>
+        <v>4182387</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.5656312279666119</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.5541564649273402</v>
+        <v>0.5542997518387598</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.578039635582367</v>
+        <v>0.5772672228911748</v>
       </c>
     </row>
     <row r="29">
@@ -9705,19 +9705,19 @@
         <v>1058589</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1008169</v>
+        <v>1001231</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1114850</v>
+        <v>1118748</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3004882714880762</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2861760526738622</v>
+        <v>0.2842066228783675</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3164581935504969</v>
+        <v>0.3175647354758971</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1690</v>
@@ -9726,19 +9726,19 @@
         <v>1123429</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1074046</v>
+        <v>1076836</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1176783</v>
+        <v>1177042</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3018144425929922</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2885473489415267</v>
+        <v>0.2892968799209168</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.316148073943937</v>
+        <v>0.3162178058563581</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2781</v>
@@ -9747,19 +9747,19 @@
         <v>2182019</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2101550</v>
+        <v>2103482</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2259255</v>
+        <v>2254919</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.301169602244971</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2900630888995519</v>
+        <v>0.2903296898612068</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.311829967858171</v>
+        <v>0.3112315264557173</v>
       </c>
     </row>
     <row r="30">
@@ -9776,19 +9776,19 @@
         <v>294639</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>262366</v>
+        <v>262655</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>332910</v>
+        <v>335308</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.08363553324500278</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.07447458089654656</v>
+        <v>0.07455665929151047</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.09449886125776105</v>
+        <v>0.09517958314789562</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>492</v>
@@ -9797,19 +9797,19 @@
         <v>308643</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>279932</v>
+        <v>283681</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>339574</v>
+        <v>338983</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.08291840018442698</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.07520499181857739</v>
+        <v>0.07621215530251986</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.09122819083769154</v>
+        <v>0.09106946267964186</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>794</v>
@@ -9818,19 +9818,19 @@
         <v>603283</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>559713</v>
+        <v>560723</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>648630</v>
+        <v>647955</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.08326710053737918</v>
+        <v>0.08326710053737919</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.0772535262219846</v>
+        <v>0.07739291607123375</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.08952607006376587</v>
+        <v>0.08943288721206175</v>
       </c>
     </row>
     <row r="31">
@@ -9847,19 +9847,19 @@
         <v>120050</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>99781</v>
+        <v>101141</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>141893</v>
+        <v>145018</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.03407715382131467</v>
+        <v>0.03407715382131468</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.02832368904679534</v>
+        <v>0.02870964855401989</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.04027737391324897</v>
+        <v>0.04116438375207614</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>222</v>
@@ -9868,19 +9868,19 @@
         <v>148811</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>130731</v>
+        <v>129969</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>172651</v>
+        <v>172135</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.03997879131187914</v>
+        <v>0.03997879131187913</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.03512160100864365</v>
+        <v>0.03491674220151933</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.04638344250784833</v>
+        <v>0.0462449289633403</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>352</v>
@@ -9889,19 +9889,19 @@
         <v>268861</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>237864</v>
+        <v>239640</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>300797</v>
+        <v>300839</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.0371091661487281</v>
+        <v>0.03710916614872811</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.03283074523335705</v>
+        <v>0.03307594613113373</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.04151702525396152</v>
+        <v>0.04152277204801712</v>
       </c>
     </row>
     <row r="32">
@@ -9918,19 +9918,19 @@
         <v>44192</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>31962</v>
+        <v>32576</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>60635</v>
+        <v>59557</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.01254429850262574</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.009072770309089021</v>
+        <v>0.009246924846859843</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.0172116061755368</v>
+        <v>0.01690574292146579</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>69</v>
@@ -9939,19 +9939,19 @@
         <v>48712</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>36922</v>
+        <v>37560</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>62852</v>
+        <v>63645</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.01308658632107332</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.009919200489475373</v>
+        <v>0.01009060330022614</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.0168855624731767</v>
+        <v>0.01709840163553259</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>116</v>
@@ -9960,19 +9960,19 @@
         <v>92904</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>75864</v>
+        <v>76883</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>114206</v>
+        <v>113706</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.01282290310230981</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.01047106219252302</v>
+        <v>0.01061161194764179</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.0157631573571589</v>
+        <v>0.01569412090889465</v>
       </c>
     </row>
     <row r="33">
